--- a/Glenguajes.xlsx
+++ b/Glenguajes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\braya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\braya\Desktop\AnalizadorLexicoMejorado(ProyectoFinal)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04C86647-A270-4446-AC45-BB88F65D47CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B5B4F0-C820-4A1E-B424-70EBAD41BE51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{176342FE-E2DE-487B-A883-8BE350C29367}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="81">
   <si>
     <t>Siguientes</t>
   </si>
@@ -294,9 +293,6 @@
     </r>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>V ;</t>
   </si>
   <si>
@@ -508,9 +504,6 @@
     </r>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>decimal</t>
   </si>
   <si>
@@ -640,6 +633,12 @@
   </si>
   <si>
     <t>+|-|*|/|%|=|==|&lt;|&gt;|&gt;=|&lt;=</t>
+  </si>
+  <si>
+    <t>Palabras R.</t>
+  </si>
+  <si>
+    <t>Cadena</t>
   </si>
 </sst>
 </file>
@@ -1026,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD893D0-202E-4065-9CC0-7AE941651047}">
   <dimension ref="A2:AQ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,7 +1447,9 @@
         <v>6</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="H9" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1600,7 +1601,9 @@
       <c r="F12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1802,10 +1805,14 @@
         <v>41</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="K16" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -2937,8 +2944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1A8543-589B-4DCF-8861-9BE505B2D345}">
   <dimension ref="B5:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2962,65 +2969,65 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>48</v>
@@ -3032,13 +3039,13 @@
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -3050,70 +3057,70 @@
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
@@ -3121,35 +3128,35 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
